--- a/git tafsilotlar.xlsx
+++ b/git tafsilotlar.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">1. git status </t>
   </si>
@@ -40,13 +40,34 @@
   </si>
   <si>
     <t>(Barchasini bittada saxranit)</t>
+  </si>
+  <si>
+    <t>git commit -m "1.v"</t>
+  </si>
+  <si>
+    <t>yangi versiya berish</t>
+  </si>
+  <si>
+    <t>git log</t>
+  </si>
+  <si>
+    <t>git config --global user.email "you@example.com"</t>
+  </si>
+  <si>
+    <t>email kiritish</t>
+  </si>
+  <si>
+    <t>git config --global user.name "Sanjar"</t>
+  </si>
+  <si>
+    <t>ism kiritish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +121,34 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -166,6 +215,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -463,12 +519,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="41" customWidth="1"/>
+    <col min="1" max="1" width="46.5703125" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -519,26 +575,40 @@
       <c r="D5" s="6"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
+      <c r="A7" s="14" t="s">
+        <v>10</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>12</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
+      <c r="A9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
     </row>
